--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E02AE-1B8A-42D1-963A-E0D41022A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D26EB-AEDC-404B-8AB0-58B97285293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1844">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5563,6 +5563,9 @@
   </si>
   <si>
     <t>Chủ ra ngoài phải thị phi, dùng nhiều lời nói tranh luận.</t>
+  </si>
+  <si>
+    <t>Chết đường, chết chợ xa nhà vì tai nạn</t>
   </si>
 </sst>
 </file>
@@ -5899,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:G1685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1440" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1682" sqref="A1682"/>
+    <sheetView tabSelected="1" topLeftCell="A1602" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1619" sqref="G1619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18853,7 +18856,7 @@
         <v>1614</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>1614</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.25">

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D26EB-AEDC-404B-8AB0-58B97285293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451AFC4-76D0-4825-9003-451DA7AEE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1849">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5566,6 +5566,21 @@
   </si>
   <si>
     <t>Chết đường, chết chợ xa nhà vì tai nạn</t>
+  </si>
+  <si>
+    <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -5613,7 +5628,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5900,10 +5935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1685"/>
+  <dimension ref="A1:G1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1602" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1619" sqref="G1619"/>
+    <sheetView tabSelected="1" topLeftCell="A1683" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1693" sqref="B1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19453,16 +19488,58 @@
       <c r="G1684" s="1"/>
     </row>
     <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1685" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>1844</v>
+      </c>
       <c r="C1685" s="1"/>
       <c r="D1685" s="1"/>
       <c r="E1685" s="1"/>
       <c r="F1685" s="2"/>
     </row>
+    <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1686" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1687" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1688" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1689" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1689" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1684" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:B1684 A1690:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1685:B1689">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451AFC4-76D0-4825-9003-451DA7AEE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01363B70-D754-4E7D-B9BB-A7201FAF128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="1853">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5581,6 +5581,18 @@
   </si>
   <si>
     <t>Vị trí cung Thiên Di so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Trường hợp thế giới ở bên ngoài có Hóa Lộc, thường thường chủ về được trời ban cho khá nhiều cơ hội, mệnh tạo phóng tầm mắt đến đâu cũng đều thấy có lợi. Hóa Lộc không chỉ là "tài lợi", mà còn chủ về "tình", có nghĩa là hoàn cảnh bên ngoài đầy những sự vật và con người hữu tình đối với mệnh tạo, cho nên cũng gặp vận đào hoa ở bên ngoài khá nhiều. Do cung thiên di còn là cung vị chủ về xuất ngoại, danh tiếng ở bên ngoài, nên trường hợp cung thiên di có Hóa Lộc sẽ chủ về cho người ta ấn tượng đầy tình người, thường thường quan hệ với người chung quanh rất tốt đẹp. Cung thiên di cũng tượng trưng cho những gì thấy trước mắt, có thể luận đoán về những khó khăn sẽ phải đối mặt, còn có thể luận đoán về kì vọng tương lai của mệnh tạo. Vì có Hóa Lộc, nên mệnh tạo đây mơ tưởng ở tương lai, và không cam chịu cô đơn tịch mịch.</t>
+  </si>
+  <si>
+    <t>Hóa Lộc chủ về "nhiều", cũng chủ về mệnh tạo muốn theo đuổi rất nhiều điều, khó có sự thỏa mãn, không ngừng tìm kiếm giấc mộng đẹp; nhưng tâm tư của mệnh tạo cũng dễ dao động, nhiều lúc có lối suy nghĩ hơi thiếu thực tế. Hóa Lộc cũng chủ về hi vọng, trường hợp Hóa Lộc ở cung thiên di, là chủ về có nhân sinh quan đúng hướng, rõ ràng; hơn nữa, vì Hóa Lộc [năm sinh] là tồn tại vĩnh viễn trong cung thiên di của nguyên cục, dù Hóa Kị [năm sinh] ở "tha cung", họ vẫn sẽ nỗ lực, lạc quan theo đuổi viễn cảnh tương lai. Đôi khi sẽ khiến mệnh tạo vì lạc quan quá đáng mà bị đả kích rất nặng.</t>
+  </si>
+  <si>
+    <t>Cung thiên di có Hóa Lộc, là chủ về sự vật ở hoàn cảnh bên ngoài thu hút sự chú ý của mệnh tạo, một khi có được sức mạnh cua đại vận tác động, là chủ về sẽ đạt được nguyện vọng ra bên ngoài, đi xa; đồng thời còn có nhiều cơ hội "dịch động". Cung thiên di còn là cung vị giao dịch (cung vị đối đãi) của cung phu thê, trường hợp Hóa Lộc xuất hiện ở cung vị đối đãi của hai người, có thể đoán người phối ngẫu đối xử khá tốt với mệnh tạo, tình cảm qua lại của hai người cũng không tệ. Do là cung vị tài bạch của người phối ngẫu, thông thường còn chủ về người phối ngẫu có năng lực, nhưng vì Hóa Lộc còn tượng trưng cho "có tiền", nếu sao hóa thuộc loại sao chủ về tiền bạc, thì năng lực kiếm tiền của người phối ngẫu cũng không phải vừa.</t>
+  </si>
+  <si>
+    <t>Cung thiên di là cung vị khí số của cung phúc đức, Hóa Lộc là chủ về có sở thích khá rộng, phạm vi của thị hiếu, hứng thú phần nhiều có liên quan đến dật lạc, hưởng thụ, mà còn có thiên hướng trữ tình, mĩ cảm, nặng về tinh thần.</t>
   </si>
 </sst>
 </file>
@@ -5616,13 +5628,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5935,15 +5944,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1689"/>
+  <dimension ref="A1:H1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1683" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1693" sqref="B1693"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1330" sqref="G1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="62.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="26.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16282,31 +16295,31 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="1293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1293" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="C1293" t="s">
+      <c r="C1293" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D1293" t="s">
+      <c r="D1293" s="1" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="1294" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1294" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="C1294" t="s">
+      <c r="C1294" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D1294" t="s">
+      <c r="D1294" s="1" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -16582,7 +16595,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
         <v>1326</v>
       </c>
@@ -16590,15 +16603,27 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="1331" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C1330" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E1330" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F1330" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
         <v>1328</v>
       </c>
@@ -16606,7 +16631,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1332" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
         <v>1329</v>
       </c>
@@ -16614,7 +16639,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="1333" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
         <v>1330</v>
       </c>
@@ -16622,7 +16647,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="1334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16630,7 +16655,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="1335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16638,7 +16663,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="1336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1336" s="1" t="s">
         <v>1333</v>
       </c>
@@ -16646,7 +16671,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="1337" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1337" s="1" t="s">
         <v>1334</v>
       </c>
@@ -16654,7 +16679,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="1338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
         <v>1335</v>
       </c>
@@ -16662,7 +16687,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="1339" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
         <v>1336</v>
       </c>
@@ -16670,7 +16695,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="1340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
         <v>1337</v>
       </c>
@@ -16678,7 +16703,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="1341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A1341" s="1" t="s">
         <v>1338</v>
       </c>
@@ -16686,7 +16711,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="1342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
         <v>1339</v>
       </c>
@@ -16694,7 +16719,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="1343" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1343" s="1" t="s">
         <v>1340</v>
       </c>
@@ -16702,7 +16727,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
         <v>1341</v>
       </c>
@@ -19270,7 +19295,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="1665" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1665" s="1" t="s">
         <v>1722</v>
       </c>
@@ -19278,7 +19303,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="1666" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
         <v>1732</v>
       </c>
@@ -19286,7 +19311,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="1667" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
         <v>1733</v>
       </c>
@@ -19294,7 +19319,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="1668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
         <v>1735</v>
       </c>
@@ -19302,7 +19327,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
         <v>1736</v>
       </c>
@@ -19310,7 +19335,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="1670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
         <v>1741</v>
       </c>
@@ -19318,7 +19343,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="1671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
         <v>1742</v>
       </c>
@@ -19326,180 +19351,119 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="1672" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
         <v>1652</v>
       </c>
       <c r="B1672" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="C1672" s="1"/>
-      <c r="D1672" s="1"/>
-      <c r="E1672" s="1"/>
-      <c r="F1672" s="2"/>
-    </row>
-    <row r="1673" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
         <v>1650</v>
       </c>
       <c r="B1673" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="C1673" s="1"/>
-      <c r="D1673" s="1"/>
-      <c r="E1673" s="1"/>
-      <c r="F1673" s="1"/>
-    </row>
-    <row r="1674" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1674" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
         <v>1655</v>
       </c>
       <c r="B1674" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="C1674" s="1"/>
-      <c r="D1674" s="1"/>
-      <c r="E1674" s="1"/>
-      <c r="F1674" s="1"/>
-      <c r="G1674" s="1"/>
-    </row>
-    <row r="1675" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1675" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>1656</v>
       </c>
       <c r="B1675" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="C1675" s="1"/>
-      <c r="D1675" s="1"/>
-      <c r="E1675" s="1"/>
-      <c r="F1675" s="2"/>
-    </row>
-    <row r="1676" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
         <v>1645</v>
       </c>
       <c r="B1676" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="C1676" s="1"/>
-      <c r="D1676" s="1"/>
-      <c r="E1676" s="1"/>
-      <c r="F1676" s="1"/>
-      <c r="G1676" s="1"/>
-    </row>
-    <row r="1677" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="B1677" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="C1677" s="1"/>
-      <c r="D1677" s="1"/>
-      <c r="E1677" s="1"/>
-      <c r="F1677" s="1"/>
-    </row>
-    <row r="1678" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
         <v>1648</v>
       </c>
       <c r="B1678" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="C1678" s="1"/>
-      <c r="D1678" s="1"/>
-      <c r="E1678" s="1"/>
-      <c r="F1678" s="1"/>
-    </row>
-    <row r="1679" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="B1679" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="C1679" s="1"/>
-      <c r="D1679" s="1"/>
-      <c r="E1679" s="1"/>
-      <c r="F1679" s="1"/>
-    </row>
-    <row r="1680" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
         <v>1653</v>
       </c>
       <c r="B1680" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="C1680" s="1"/>
-      <c r="D1680" s="1"/>
-      <c r="E1680" s="1"/>
-      <c r="F1680" s="1"/>
-    </row>
-    <row r="1681" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
         <v>1651</v>
       </c>
       <c r="B1681" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="C1681" s="1"/>
-      <c r="D1681" s="1"/>
-      <c r="E1681" s="1"/>
-      <c r="F1681" s="1"/>
-    </row>
-    <row r="1682" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
         <v>1649</v>
       </c>
       <c r="B1682" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="C1682" s="1"/>
-      <c r="D1682" s="1"/>
-      <c r="E1682" s="1"/>
-      <c r="F1682" s="1"/>
-      <c r="G1682" s="1"/>
-    </row>
-    <row r="1683" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
         <v>1647</v>
       </c>
       <c r="B1683" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="C1683" s="1"/>
-      <c r="D1683" s="1"/>
-      <c r="E1683" s="1"/>
-      <c r="F1683" s="1"/>
-      <c r="G1683" s="1"/>
-    </row>
-    <row r="1684" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1684" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
         <v>1654</v>
       </c>
       <c r="B1684" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="C1684" s="1"/>
-      <c r="D1684" s="1"/>
-      <c r="E1684" s="1"/>
-      <c r="F1684" s="1"/>
-      <c r="G1684" s="1"/>
-    </row>
-    <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
         <v>1844</v>
       </c>
       <c r="B1685" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="C1685" s="1"/>
-      <c r="D1685" s="1"/>
-      <c r="E1685" s="1"/>
-      <c r="F1685" s="2"/>
-    </row>
-    <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
         <v>1845</v>
       </c>
@@ -19507,7 +19471,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
         <v>1846</v>
       </c>
@@ -19515,7 +19479,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
         <v>1847</v>
       </c>
@@ -19523,7 +19487,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
         <v>1848</v>
       </c>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01363B70-D754-4E7D-B9BB-A7201FAF128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7ACE5F-11B1-4918-8C3F-7C97B3307830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1862">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5593,6 +5593,33 @@
   </si>
   <si>
     <t>Cung thiên di là cung vị khí số của cung phúc đức, Hóa Lộc là chủ về có sở thích khá rộng, phạm vi của thị hiếu, hứng thú phần nhiều có liên quan đến dật lạc, hưởng thụ, mà còn có thiên hướng trữ tình, mĩ cảm, nặng về tinh thần.</t>
+  </si>
+  <si>
+    <t>Cung thiên di là cung vị chủ về toàn bộ thế giới ở bên ngoài, vì vậy luận về phạm vi, nó còn lớn hon cả cung mệnh. Trường hợp cung thiên di có Hóa Quyền là chủ về hoàn cảnh ở bên ngoài có khá nhiều cơ hội, và cũng sẽ tạo thành tình trạng mất quân bình giữa hai cung mệnh và di.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền ở cung thiên di tuy có nhiều cơ hội, nhưng vì Hóa Quyền vốn có hàm ý là biến đối mau lẹ, thêm vào đó, nếu sao Hóa Quyền là loại sao có tính biến động lớn, thì cơ hội sẽ qua đi nhanh như chóp, mệnh tạo rất khó nắm bắt. Muốn biết có nắm bắt được hay không thì phải xem vị trí của Hóa Lộc và Hóa Kị [năm sinh], tâm khơi động niệm giữa hai bờ không thích đáng, rất dễ làm cơ hội vuột mất.</t>
+  </si>
+  <si>
+    <t>Ở bên ngoài có cơ hội, nhưng cũng có áp lực, những người mệnh tạo gặp nếu không phải là giới chuyên nghiệp thì cũng là quyền quý, cho nên cung thiên di có Hóa Quyền có thể khiến mệnh tạo thường xuyên phải đối mặt với cơ hội và áp lực, đương nhiên sẽ thúc đầy mệnh tạo trưởng thành. Ngoài ra, Hóa Quyền ở cung thiên di, là chủ về thấy một mục tiêu lớn, cho nên bản thân đương sự cảm thấy sứ mệnh của mình khá nặng trong lòng sẽ vạch ra một viễn trình, một mục tiêu trường kì, cũng sẽ đốc thúc bản thân gấp rút, nỗ lực để đạt thành. Tiếp theo trên, cung thiên di tượng trưng những sự tình thấy trước mắt, có thể mở rộng ra để luận về kì vọng trong tương lai.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền, Phá Quân đồng cung tại Thiên Di ở Tý</t>
+  </si>
+  <si>
+    <t>Tuy mệnh tạo có mục tiêu trường kì, nhưng mục tiêu này lại thay đổi khá nhanh, liên đới với môi trường làm việc, có thể cũng sẽ thay đổi nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền khơi động sẽ khiến mệnh tạo bị dẫn dắt ra bên ngoài phát triển; đồng thời, Hóa Quyền là chủ về biến hóa, nên cũng tượng trưng cho hoàn cảnh thường thay đổi. Tổng hợp để luận, có thể nói lực "dịch động" khá mạnh. Hóa Quyền, nên mục tiêu và lí tưởng của mệnh tạo là đối tượng khá cụ thể; đồng thời Hóa Quyền còn là lực hành động vả lực tạo tác, cho nên việc mệnh tạo thực hiện được lí tưởng là có khả năng khá cao, lúc ở bên ngoài cũng rất tích cực. Hơn nữa, vì lực hành động mạnh, nên có tượng chủ động ra bên ngoài, chớ không phải bị hoàn cảnh bức bách mà phải ra bên ngoài, còn có cơ hội thực hiện lí tưởng của mình sau khi rời xa quê hương.</t>
+  </si>
+  <si>
+    <t>Tiếp theo trên, mệnh tạo có vận thế đi xa rất mạnh, thường được sai phái đi xa. Ngoài ra, cung thiên di còn là cung vị xuất ngoại, dùng để đánh giá tình hình tiếng tăm của mệnh tạo và thái độ của người khác ở bên ngoài; trường hợp này chủ về ở đất lạ, dưới áp lực của hoàn cảnh luôn thay đổi, mệnh tạo có cảm giác gánh nặng hơn người bình thường, mà năng lực phán đoán cũng rất nhạy bén. Nếu Hóa Quyền [năm sinh] và Hóa Kị [năm sinh] cùng ở cung thiên di, hoặc lúc Hóa Kị [đại vận] nhập cung thiên dí, sẽ khiến Hóa Quyền và Hóa Kị thành tình trạng "giao chiến", khi ra bên ngoài phải phòng tai nạn giao thông, xảy ra bất trắc. Lúc này phải xem xét tình hình cát hung ở cung phu thê (cung vị khí số của cung thiên di) để định.</t>
+  </si>
+  <si>
+    <t>Cung thiên di đồng thời còn là cung vị tài bạch (cung vị biểu hiện) của người phối ngẫu, trường hợp Hóa Quyền ở cung thiên di, là chủ về người phối ngẫu có thể mạnh trong môi trường làm việc; cũng vì Hóa Quyền nên mệnh tạo sẽ kiếm tiền khá vất vả, nhưng cũng có thể thúc bách làm cho mệnh tạo có lí tưởng, có nguyện vọng. Cũng cùng một dạng, Hóa Quyền ở cung vị biểu hiện của người phối ngẫu, là chủ về trong cuộc sống chung của hai người, người phối ngẫu sẽ là phía chủ đạo, cá tính cũng mạnh mẽ hơn; dưới áp lực (hoặc yêu cầu) của người phối ngẫu (có biểu hiện xuất sắc), sẽ khiến cho mệnh tạo không còn cách nào khác, phải nỗ lực.</t>
+  </si>
+  <si>
+    <t>Cung thiên di còn là cung vị khí số của cung phúc đức, trường hợp Hóa Quyền ở cung thiên di, cũng chủ về sở thích, thị hiếu của mệnh tạo không kéo dài và hay thay đổi. Ngoài ra, quan niệm của mệnh tạo về nghỉ ngơi, giải trí cùng khác với người ta; quá trình hưởng thụ, nghỉ ngơi của mệnh tạo thường không được nhẹ nhàng, thường là bồi dưỡng kiến thức, hay học tập một nghề mới.</t>
   </si>
 </sst>
 </file>
@@ -5944,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:H1689"/>
+  <dimension ref="A1:I1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1330" sqref="G1330"/>
+    <sheetView tabSelected="1" topLeftCell="A1331" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1331" sqref="B1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,7 +5983,9 @@
     <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="43.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16295,7 +16324,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="1293" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
         <v>26</v>
       </c>
@@ -16309,7 +16338,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="1294" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
         <v>27</v>
       </c>
@@ -16595,7 +16624,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1329" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
         <v>1326</v>
       </c>
@@ -16603,7 +16632,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1330" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
         <v>1327</v>
       </c>
@@ -16623,15 +16652,36 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1331" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="1332" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C1331" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E1331" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F1331" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G1331" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H1331" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I1331" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
         <v>1329</v>
       </c>
@@ -16639,7 +16689,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="1333" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
         <v>1330</v>
       </c>
@@ -16647,7 +16697,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="1334" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16655,7 +16705,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="1335" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16663,7 +16713,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="1336" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1336" s="1" t="s">
         <v>1333</v>
       </c>
@@ -16671,7 +16721,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="1337" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1337" s="1" t="s">
         <v>1334</v>
       </c>
@@ -16679,7 +16729,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="1338" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
         <v>1335</v>
       </c>
@@ -16687,7 +16737,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="1339" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
         <v>1336</v>
       </c>
@@ -16695,7 +16745,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="1340" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
         <v>1337</v>
       </c>
@@ -16703,7 +16753,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="1341" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1341" s="1" t="s">
         <v>1338</v>
       </c>
@@ -16711,7 +16761,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="1342" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
         <v>1339</v>
       </c>
@@ -16719,7 +16769,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="1343" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1343" s="1" t="s">
         <v>1340</v>
       </c>
@@ -16727,7 +16777,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="1344" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
         <v>1341</v>
       </c>
@@ -19493,6 +19543,14 @@
       </c>
       <c r="B1689" s="1" t="s">
         <v>1848</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1690" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1690" s="1" t="s">
+        <v>1857</v>
       </c>
     </row>
   </sheetData>

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7ACE5F-11B1-4918-8C3F-7C97B3307830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39C0E5-AB75-445B-A152-09E35B7AFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1867">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5620,6 +5620,21 @@
   </si>
   <si>
     <t>Cung thiên di còn là cung vị khí số của cung phúc đức, trường hợp Hóa Quyền ở cung thiên di, cũng chủ về sở thích, thị hiếu của mệnh tạo không kéo dài và hay thay đổi. Ngoài ra, quan niệm của mệnh tạo về nghỉ ngơi, giải trí cùng khác với người ta; quá trình hưởng thụ, nghỉ ngơi của mệnh tạo thường không được nhẹ nhàng, thường là bồi dưỡng kiến thức, hay học tập một nghề mới.</t>
+  </si>
+  <si>
+    <t>Nếu lấy Hóa Khoa để luận về cách nhìn vấn đề, thì chủ về người này có cách phán đoán và suy nghĩ hợp lí. Dưới ảnh hưởng của Hóa Khoa ở cung thiên di, mệnh tạo đối với tiền đồ tương lai đều có tính toán hợp lí, không rơi vào mơ mộng cao xa, ít có cách suy nghĩ không tưởng, mà có thể vạch ra kế hoạch một cách hợp lí. Vì Hóa Khoa chủ về công danh, danh tiếng; nên trường hợp Hóa Khoa ở cung thiên di, mệnh tạo có ước vọng danh tiếng và học vấn khá cao, có thể sẽ đi du học, đi xa để học hỏi, hoặc vì một lí tưởng công ích nào đó mà đầu tư thời gian. Cũng vì lực tác động của Hóa Khoa, nên các hành vi tạo tác của mệnh tạo đều phù hợp với nguyên tắc "tiến từng bước".</t>
+  </si>
+  <si>
+    <t>Cung thiên di là đại biểu cho toàn bộ hoàn cảnh lớn bên ngoài, trường hợp có Hóa Khoa, là mệnh tạo ở bên ngoài được bảo vệ yên ổn, hoàn cảnh nơi ở của mệnh tạo hiếm khi xảy ra chuyện gì kì lạ. Nói một cách khác, bản thân mệnh tạo là người quân từ khiêm tốn, toàn bộ hoàn cảnh chung quanh cũng ngầm chuyển biến tương tự. Vì cung thiên di có Hóa Khoa, nên bất luận là đi chơi xa hay đi công tác xa, trước đó mệnh tạo đều có kế hoạch chu đáo tỉ mỉ, và theo kế hoạch mà làm. Vì vậy, việc đi công tác xa của họ không phải hứng đâu làm đó. toàn bộ hoàn cảnh bên ngoài đều ở trong tình huống khó xảy ra chuyện bất ngờ, cho nên ngầm báo vận đi xa hay ra bên ngoài là tốt đẹp.</t>
+  </si>
+  <si>
+    <t>Cung thiên di là cung vị khí số của cung phúc đức, mà cung phúc đức là dùng để luận đoán EQ, quyết sách trước khi hành động và thời gian đầu của sự ứng biến; vì vậy, cung thiên di đóng vai trò khá quan trọng trong việc định ra quyết sách hay hoặc dở. Trường hợp cung thiên di có Hóa Khoa, là có quyết sách hay. Tiếp theo trên, vì cung phúc đức còn chủ về hứng thú và thị hiếu của mệnh tạo; nên trong trường hợp cung thiên di có. Hóa Khoa là chủ về mệnh tạo có phẩm cách cao, hứng thú và thị hiếu rất lành mạnh, có nội hàm, phẩm chất cuộc sống cũng khá tốt.</t>
+  </si>
+  <si>
+    <t>Cung thiên di là cung vị biểu hiện của cung phu thê, Hóa Khoa ở cung thiên di, có thể thấy người phối ngẫu có sở học tình chuyên, lời nói cử chỉ của họ rất có phép tắc. Do tác dụng cửa Hóa Khoa, người phối ngẫu không phải là thương nhân, cũng ít có khả năng tự kinh doanh; do đó, thường thường có thể luận người phối ngẫu sau khi kết hôn vẫn duy trì nghề nghiệp cũ. Cung thiên di đã là cung vị biểu hiện của cung phu thê, còn có Hóa Khoa ở trong đó hộ vệ, là chủ về người phối ngẫu trầm ổn, có lễ phép, hai người sống với nhau trong sự tôn trọng lẫn nhau; dù Hóa Kị [đại vận] nhập cung thiên di giữa hai người vẫn trò chuyện trao đổi với nhau, tình cảm không đến nỗi đổ vỡ, trừ phi cung phúc đức có tượng biến hóa khác.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Khoa ở cung thiên di, mệnh tạo làm cho người ta có cảm giác họ là người có ngăn nắp, phần nhiều đều biểu đạt được cách suy nghĩ của mình một cách hữu hiệu, để lại ấn tượng tốt nơi người khác, quan hệ giao tế rất khả quan. Lúc cung thiên di thấy Hóa Kị sẽ tấn công cung mệnh, nhưng ở cung thiên di thấy Hóa Khoa thì có thể hóa giải sự công kích của Hóa Kị. Xét ở một góc độ khác, người có Hóa Khoa ở cung thiên di, phần nhiều có duyên với người ở bên ngoài, trong vô hình còn có thể hóa giải mầm tai ách, nhờ vậy mà ít gặp họa. Luận về mầm tai ách, cung thiên di chủ về tai nạn giáo thông và có liên quan đến tính mạng. Cung thiên di có Hóa Khoa, dưới sự bảo vệ của Hóa Khoa, bản thân mệnh tạo ít khi bị tai nạn giao thông, dù bị tai nạn phần nhiều cũng hóa hiểm thành yên.</t>
   </si>
 </sst>
 </file>
@@ -5973,16 +5988,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:I1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1331" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1331" sqref="B1331"/>
+    <sheetView tabSelected="1" topLeftCell="A1332" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1332" sqref="H1332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="62.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="1" customWidth="1"/>
     <col min="6" max="7" width="43.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="46.85546875" customWidth="1"/>
@@ -16681,12 +16696,27 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="1332" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>1773</v>
+      </c>
+      <c r="C1332" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E1332" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1332" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G1332" s="1" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="1333" spans="1:9" ht="105" x14ac:dyDescent="0.25">

--- a/LuanThienDi.xlsx
+++ b/LuanThienDi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39C0E5-AB75-445B-A152-09E35B7AFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5685E-F017-4028-8387-FD6E6F05FF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="1874">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5635,6 +5635,27 @@
   </si>
   <si>
     <t>Vì Hóa Khoa ở cung thiên di, mệnh tạo làm cho người ta có cảm giác họ là người có ngăn nắp, phần nhiều đều biểu đạt được cách suy nghĩ của mình một cách hữu hiệu, để lại ấn tượng tốt nơi người khác, quan hệ giao tế rất khả quan. Lúc cung thiên di thấy Hóa Kị sẽ tấn công cung mệnh, nhưng ở cung thiên di thấy Hóa Khoa thì có thể hóa giải sự công kích của Hóa Kị. Xét ở một góc độ khác, người có Hóa Khoa ở cung thiên di, phần nhiều có duyên với người ở bên ngoài, trong vô hình còn có thể hóa giải mầm tai ách, nhờ vậy mà ít gặp họa. Luận về mầm tai ách, cung thiên di chủ về tai nạn giáo thông và có liên quan đến tính mạng. Cung thiên di có Hóa Khoa, dưới sự bảo vệ của Hóa Khoa, bản thân mệnh tạo ít khi bị tai nạn giao thông, dù bị tai nạn phần nhiều cũng hóa hiểm thành yên.</t>
+  </si>
+  <si>
+    <t>Cung thiên di đại biểu cho kiến văn và cảm quan của mệnh tạo về tiền đồ, viễn cảnh tương lai; trường hợp có Hóa Kị ở cung thiên di, trong cách nhìn về tương lai của mệnh tạo, là cảnh trí đầy chông gai và hỗn loạn, khó sáng sủa; do đó sẽ khiến mệnh tạo có cách suy nghĩ toàn là màu xám, quá độ bi quan; hơn nữa, vì đại vận sẽ dẫn khởi Hóa Kị đến xung kích cung mệnh, nên cuộc đời của mệnh tạo hay đối mặt với những áp lực, tình huống thất lợi, và trở ngại trùng trùng; dù đang ở trong đại vận bình an vô sự, đương sự cũng dễ vì kinh nghiệm đã trải qua mà cảm thấy lo lắng không yên về tiền đồ tương lai, không cách nào diễn tả được.</t>
+  </si>
+  <si>
+    <t>Cung thiên di cũng là cung vị khí số của cung phúc đức, cung phúc đức chủ về thị hiếu, hứng thú, và trạng thái tâm lí có điều chỉnh cho thích ứng hay không; trường hợp có Hóa Kị ở cung thiên di, ngoại trừ tình huống xung kích cung mệnh, còn chủ về năng lực điều chỉnh tâm trạng của mệnh tạo không được tốt, phẩm chất của sở thích và thị hiếu cũng không tốt, sự ràng buộc với thị hiếu cũng không mạnh, mệnh tạo rất khó dựa vào sở thích và thị hiếu để giải tỏa áp lực hay điều chỉnh tâm trạng. Tiếp theo trên, cung phúc đức là cung vị chuẩn bị trước khi động tâm khởi niệm. Lúc cung vị khí số của nó (tức cung thiên di) thấy Hóa Kị, là chủ về trước khi hành động, mệnh tạo thường hay có hướng suy nghĩ không chính xác, EQ cũng không cao, trực tiếp bị ảnh hưởng chính là quyết sách của mệnh tạo, thường thường quyết sách của mệnh tạo không được cao minh.</t>
+  </si>
+  <si>
+    <t>Về người phối ngẫu, cung thiên di là cung vị biểu hiện của họ, có Hóa Kị là người phối ngẫu rất mong muốn kiếm tiền, hoặc muốn dùng mọi phương thức để kiếm tiền. Nhưng do Hóa Kị xung kích cung mệnh, tức động tác kiếm được tiền của người phối ngẫu sẽ xung kích mệnh tạo, vì vậy về biểu hiện công tác và năng lực kiếm tiền (bất luận năng lực kiếm tiền cao hay thấp) của người phối ngẫu, mệnh tạo đều sẽ có cảm giác bất an, người phối ngẫu không kiếm tiền để lo lắng cho tương lai của hai người, mà rất muốn kiếm tiền là vì lo lắng bản thân có thể sẽ không có bạn đời, hoặc vì có tâm lí so sánh hơn thua với mệnh tạo. Tình yêu (hôn nhân) lần đầu của mệnh tạo sợ rằng sẽ bị thất bại, bởi vì nàng lực và biểu hiện của người yêu tạo áp lực quá lớn cho mệnh tạo, đồng thời nhân tố hành vi đan xen phức tạp giữa hai người cũng dễ liên quan đến tiền bạc, khiến cho mệnh tạo cảm thấy hai người sẽ không có cùng một tương lai. Ngoài ra, Hóa Kị ở cung thiên di cũng sẽ khiến cho cung phúc đức chủ về phẩm chất không tốt, nên tình cảm đầu đời của mệnh tạo phần nhiều là đau buồn.</t>
+  </si>
+  <si>
+    <t>Hóa Kị ở cung thiên di cũng sẽ tác động bắt buộc mệnh phải "dịch động". Thường thường mệnh tạo phải đi xa, đi công tác xa, hay đi du học; nhưng do tác động của Hóa Kị, mệnh tạo đi xa rồi sẽ muốn quay về nhà, quay về nhà rồi lại muốn đi xa. Vì lực tác động của Hóa Kị, nên có lúc mệnh tạo ở bên ngoài sẽ có tâm trạng không tốt, cảm thấy khó yên ổn, nguyên nhân sinh ra tâm trạng này phần nhiều là do mệnh tạo ở bên ngoài dễ bị nơi khác không chấp nhận, hoặc ở bên ngoài khó có bạn tri kỉ, thiếu cảm giác an toàn. Hóa Kị còn có ý tượng "làm cho rối rắm", "làm phiền". Trong các tình huống đã thuật ở trên, mệnh tạo rất dễ ở nơi khác (nước khác) đến già, khó quay về nơi sinh ra.</t>
+  </si>
+  <si>
+    <t>Cung thiên di là đại biểu cho cảm quan của mệnh tạo đối với viễn cảnh tương lai, đúng là có quan hệ bất khả phân với sự "dịch động" ở bên ngoài. Trường hợp cung thiên di có Hóa Kị, vì nó xung kích mệnh tạo, là chủ về nên phòng tai nạn giao thông; nếu có Hóa Kị ở cung thiên di hay cung tử nữ của đại vận, cần đặc biệt chú ý vấn đề an toàn giao thông.</t>
+  </si>
+  <si>
+    <t>Vị trí của cung thiên di năm ở giữa cung nô bộc và cung tật ách, là tượng trưng cho cung vị giao lưu giữa "đại ngã" của hoàn cảnh bên ngoài, với "tự ngã" bên trong tâm hồn. Trường hợp cung thiên di xuất hiện Hóa Kị, là chủ về trong và ngoài khó thông nhau; nói một cách cụ thể, quan hệ giao tế của mệnh tạo không được tốt, lòng tự tôn quá nặng và "da mặt quá mỏng".</t>
+  </si>
+  <si>
+    <t>Cung thiên di cư ở cung vị tật ách của cung phụ mẫu, trường hợp có Hóa Kị, tức sức khỏe của song thân có vấn đề, mà vấn đề này sẽ làm cho mệnh tạo rất bối rối. Vì Hóa Kị ở cung thiên di trực xung cung mệnh, do đó, thường thường trong đại vận thứ nhất mệnh tạo phải đối mặt với hoàn cảnh biến động thay đổi, một trong song thân sẽ có vấn đề về sức khỏe, lúc này không nên thấy Thiên Hình, nếu không sẽ có tang sự báo hiếu với tầng suất rất cao.</t>
   </si>
 </sst>
 </file>
@@ -5988,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:I1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1332" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1332" sqref="H1332"/>
+    <sheetView tabSelected="1" topLeftCell="F1333" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1333" sqref="H1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16647,7 +16668,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1330" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
         <v>1327</v>
       </c>
@@ -16667,7 +16688,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1331" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
         <v>1328</v>
       </c>
@@ -16719,12 +16740,33 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="1333" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>1774</v>
+      </c>
+      <c r="C1333" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1333" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G1333" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H1333" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I1333" s="1" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="1334" spans="1:9" ht="60" x14ac:dyDescent="0.25">
